--- a/store/sk/google_play.xlsx
+++ b/store/sk/google_play.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>String Identifier</t>
   </si>
@@ -29,7 +29,10 @@
     <t>Short Description</t>
   </si>
   <si>
-    <t>Prijímajte platby v kryptomenách jednoducho! Konvertujte platby. Ignorujte volatilitu cien.</t>
+    <t>Prijímajte platby v kryptomenách! Konvertujte platby. Ignorujte volatilitu.</t>
+  </si>
+  <si>
+    <t>MAXIMUM 80 CHARACTERS!</t>
   </si>
   <si>
     <t>Body</t>
@@ -59,7 +62,10 @@
     <t>Title</t>
   </si>
   <si>
-    <t>MoonPos: Prijímajte platby v kryptomenách jednoducho!</t>
+    <t>MoonPos: Jednoduché platby v kryptomenách!</t>
+  </si>
+  <si>
+    <t>MAXIMUM 50 CHARACTERS!</t>
   </si>
 </sst>
 </file>
@@ -428,27 +434,31 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2"/>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4"/>
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
